--- a/birdex_v2/TKOrder.xlsx
+++ b/birdex_v2/TKOrder.xlsx
@@ -7,22 +7,19 @@
     <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="takeOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
   <si>
     <t>areaCode</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>takeType</t>
   </si>
   <si>
     <t>warehouse</t>
@@ -64,30 +61,33 @@
     <t>boxNo</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>identityCard</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>identityCard</t>
-  </si>
-  <si>
     <t>E2B</t>
   </si>
   <si>
@@ -103,18 +103,30 @@
     <t>奶粉</t>
   </si>
   <si>
+    <t>note-1</t>
+  </si>
+  <si>
     <t>婴儿理发器,</t>
   </si>
   <si>
     <t>test0512</t>
   </si>
   <si>
+    <t>xieshitong</t>
+  </si>
+  <si>
     <t>广东省 深圳市 福田区 天安数码城</t>
   </si>
   <si>
     <t>010-55557777</t>
   </si>
   <si>
+    <t>xie_shitong@163.com</t>
+  </si>
+  <si>
+    <t>谢-1</t>
+  </si>
+  <si>
     <t>CN140510510426</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>母婴</t>
   </si>
   <si>
+    <t>note-2</t>
+  </si>
+  <si>
     <t>儿童自行车,</t>
   </si>
   <si>
@@ -133,12 +148,27 @@
     <t>027-85094236-023</t>
   </si>
   <si>
+    <t>xie_shitong@164.com</t>
+  </si>
+  <si>
+    <t>谢-2</t>
+  </si>
+  <si>
     <t>CN140510541315</t>
   </si>
   <si>
     <t>Littlearth</t>
   </si>
   <si>
+    <t>note-3</t>
+  </si>
+  <si>
+    <t>xie_shitong@165.com</t>
+  </si>
+  <si>
+    <t>谢-3</t>
+  </si>
+  <si>
     <t>CN140510313374</t>
   </si>
   <si>
@@ -148,9 +178,18 @@
     <t>塑胶玩具</t>
   </si>
   <si>
+    <t>note-4</t>
+  </si>
+  <si>
     <t>儿童自行车,中筒靴子,</t>
   </si>
   <si>
+    <t>xie_shitong@166.com</t>
+  </si>
+  <si>
+    <t>谢-4</t>
+  </si>
+  <si>
     <t>CN140510341247</t>
   </si>
   <si>
@@ -160,12 +199,21 @@
     <t>儿童自行车</t>
   </si>
   <si>
+    <t>note-5</t>
+  </si>
+  <si>
     <t>布质手包,女士T恤衫,</t>
   </si>
   <si>
     <t>test0516</t>
   </si>
   <si>
+    <t>xie_shitong@167.com</t>
+  </si>
+  <si>
+    <t>谢-5</t>
+  </si>
+  <si>
     <t>CN140512580504</t>
   </si>
   <si>
@@ -175,6 +223,9 @@
     <t>纸尿裤</t>
   </si>
   <si>
+    <t>note-6</t>
+  </si>
+  <si>
     <t>中筒靴子,唇部卸妆液,男士T恤,</t>
   </si>
   <si>
@@ -184,6 +235,12 @@
     <t>一淘未审核2</t>
   </si>
   <si>
+    <t>xie_shitong@168.com</t>
+  </si>
+  <si>
+    <t>谢-6</t>
+  </si>
+  <si>
     <t>CN140512203817</t>
   </si>
   <si>
@@ -193,9 +250,18 @@
     <t>安全座椅</t>
   </si>
   <si>
+    <t>note-7</t>
+  </si>
+  <si>
     <t>test0518</t>
   </si>
   <si>
+    <t>xie_shitong@169.com</t>
+  </si>
+  <si>
+    <t>谢-7</t>
+  </si>
+  <si>
     <t>CN140512353061</t>
   </si>
   <si>
@@ -205,12 +271,21 @@
     <t>推出伞车</t>
   </si>
   <si>
+    <t>note-8</t>
+  </si>
+  <si>
     <t>裤子,</t>
   </si>
   <si>
     <t>test0519</t>
   </si>
   <si>
+    <t>xie_shitong@170.com</t>
+  </si>
+  <si>
+    <t>谢-8</t>
+  </si>
+  <si>
     <t>CN140512168281</t>
   </si>
   <si>
@@ -220,6 +295,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>note-9</t>
+  </si>
+  <si>
     <t>食物研磨器,</t>
   </si>
   <si>
@@ -229,9 +307,15 @@
     <t>广东省 深圳市 福田区 天展</t>
   </si>
   <si>
+    <t>xieshitong@birdex.cn</t>
+  </si>
+  <si>
     <t>12010319730208614X</t>
   </si>
   <si>
+    <t>谢-9</t>
+  </si>
+  <si>
     <t>CN140512010673</t>
   </si>
   <si>
@@ -241,12 +325,18 @@
     <t>母婴类小电器</t>
   </si>
   <si>
+    <t>note-10</t>
+  </si>
+  <si>
     <t>充气浴盆,</t>
   </si>
   <si>
     <t>test0521</t>
   </si>
   <si>
+    <t>谢-10</t>
+  </si>
+  <si>
     <t>CN140512570673</t>
   </si>
   <si>
@@ -256,12 +346,18 @@
     <t>其它辅食</t>
   </si>
   <si>
+    <t>note-11</t>
+  </si>
+  <si>
     <t>test0522</t>
   </si>
   <si>
     <t>宝民二路翠景居B栋405</t>
   </si>
   <si>
+    <t>谢-11</t>
+  </si>
+  <si>
     <t>CN140512441528</t>
   </si>
   <si>
@@ -271,12 +367,18 @@
     <t>塑胶杯子/碗</t>
   </si>
   <si>
+    <t>note-12</t>
+  </si>
+  <si>
     <t>test0523</t>
   </si>
   <si>
     <t>科技中三路国人通信305</t>
   </si>
   <si>
+    <t>谢-12</t>
+  </si>
+  <si>
     <t>CN140512276321</t>
   </si>
   <si>
@@ -286,12 +388,18 @@
     <t>吸奶器</t>
   </si>
   <si>
+    <t>note-13</t>
+  </si>
+  <si>
     <t>test0524</t>
   </si>
   <si>
     <t>软件园1期3栋511 笨鸟海淘</t>
   </si>
   <si>
+    <t>谢-13</t>
+  </si>
+  <si>
     <t>CN140512168470</t>
   </si>
   <si>
@@ -301,15 +409,24 @@
     <t>其它</t>
   </si>
   <si>
+    <t>note-14</t>
+  </si>
+  <si>
     <t>唇部卸妆液,</t>
   </si>
   <si>
     <t>test0525</t>
   </si>
   <si>
+    <t>micro</t>
+  </si>
+  <si>
     <t>0755-5212145</t>
   </si>
   <si>
+    <t>谢-14</t>
+  </si>
+  <si>
     <t>CN140512813603</t>
   </si>
   <si>
@@ -319,9 +436,15 @@
     <t>服装服饰</t>
   </si>
   <si>
+    <t>note-15</t>
+  </si>
+  <si>
     <t>test0526</t>
   </si>
   <si>
+    <t>谢-15</t>
+  </si>
+  <si>
     <t>CN140512663610</t>
   </si>
   <si>
@@ -331,12 +454,18 @@
     <t>服装及服饰</t>
   </si>
   <si>
+    <t>note-16</t>
+  </si>
+  <si>
     <t>test0527</t>
   </si>
   <si>
     <t>0755-52145235</t>
   </si>
   <si>
+    <t>谢-16</t>
+  </si>
+  <si>
     <t>CN140512436586</t>
   </si>
   <si>
@@ -346,12 +475,18 @@
     <t>外衣裤</t>
   </si>
   <si>
+    <t>note-17</t>
+  </si>
+  <si>
     <t>test0528</t>
   </si>
   <si>
     <t>科兴科学院A1502.</t>
   </si>
   <si>
+    <t>谢-17</t>
+  </si>
+  <si>
     <t>CN140512862164</t>
   </si>
   <si>
@@ -361,6 +496,9 @@
     <t>内衣/内裤</t>
   </si>
   <si>
+    <t>note-18</t>
+  </si>
+  <si>
     <t>洗甲液,</t>
   </si>
   <si>
@@ -373,6 +511,9 @@
     <t>0755-5232121</t>
   </si>
   <si>
+    <t>谢-18</t>
+  </si>
+  <si>
     <t>CN140513153143</t>
   </si>
   <si>
@@ -382,6 +523,9 @@
     <t>衬衫</t>
   </si>
   <si>
+    <t>note-19</t>
+  </si>
+  <si>
     <t>发胶,</t>
   </si>
   <si>
@@ -394,6 +538,9 @@
     <t>0755-55485654-6655</t>
   </si>
   <si>
+    <t>谢-19</t>
+  </si>
+  <si>
     <t>CN140513070378</t>
   </si>
   <si>
@@ -403,12 +550,18 @@
     <t>女士T恤衫</t>
   </si>
   <si>
+    <t>note-20</t>
+  </si>
+  <si>
     <t>米糊/米粉,</t>
   </si>
   <si>
     <t>test0531</t>
   </si>
   <si>
+    <t>谢-20</t>
+  </si>
+  <si>
     <t>CN140513405771</t>
   </si>
   <si>
@@ -418,6 +571,9 @@
     <t>围巾</t>
   </si>
   <si>
+    <t>note-21</t>
+  </si>
+  <si>
     <t>染发剂,女士T恤衫,</t>
   </si>
   <si>
@@ -430,6 +586,9 @@
     <t>0755-55557777</t>
   </si>
   <si>
+    <t>谢-21</t>
+  </si>
+  <si>
     <t>CN140513382282</t>
   </si>
   <si>
@@ -439,12 +598,21 @@
     <t>领带</t>
   </si>
   <si>
+    <t>note-22</t>
+  </si>
+  <si>
     <t>test0533</t>
   </si>
   <si>
     <t>0755-55557777-5566</t>
   </si>
   <si>
+    <t>xie_shitong@184.com</t>
+  </si>
+  <si>
+    <t>谢-22</t>
+  </si>
+  <si>
     <t>CN140513166412</t>
   </si>
   <si>
@@ -454,6 +622,9 @@
     <t>手套</t>
   </si>
   <si>
+    <t>note-23</t>
+  </si>
+  <si>
     <t>染发剂,</t>
   </si>
   <si>
@@ -463,9 +634,15 @@
     <t>0755-64231231</t>
   </si>
   <si>
+    <t>xie_shitong@185.com</t>
+  </si>
+  <si>
     <t>44042119910425810X</t>
   </si>
   <si>
+    <t>谢-23</t>
+  </si>
+  <si>
     <t>CN140513157185</t>
   </si>
   <si>
@@ -475,6 +652,9 @@
     <t>袜子</t>
   </si>
   <si>
+    <t>note-24</t>
+  </si>
+  <si>
     <t>婴儿洗发水,毛衣/开衫,</t>
   </si>
   <si>
@@ -487,6 +667,12 @@
     <t>0755-6525124</t>
   </si>
   <si>
+    <t>xie_shitong@186.com</t>
+  </si>
+  <si>
+    <t>谢-24</t>
+  </si>
+  <si>
     <t>CN140513542114</t>
   </si>
   <si>
@@ -496,6 +682,9 @@
     <t>眼镜</t>
   </si>
   <si>
+    <t>note-25</t>
+  </si>
+  <si>
     <t>塑胶杯子/碗,洗甲液,中筒靴子,</t>
   </si>
   <si>
@@ -508,24 +697,42 @@
     <t>0755-6526756-23</t>
   </si>
   <si>
+    <t>xie_shitong@187.com</t>
+  </si>
+  <si>
+    <t>谢-25</t>
+  </si>
+  <si>
     <t>CN140513311226</t>
   </si>
   <si>
     <t>帽子</t>
   </si>
   <si>
+    <t>note-26</t>
+  </si>
+  <si>
     <t>COACH 精致皮革 优雅女士包</t>
   </si>
   <si>
     <t>test0537</t>
   </si>
   <si>
+    <t>xie_shitong@188.com</t>
+  </si>
+  <si>
+    <t>谢-26</t>
+  </si>
+  <si>
     <t>CN140513304628</t>
   </si>
   <si>
     <t>手表(价值500元以下）</t>
   </si>
   <si>
+    <t>note-27</t>
+  </si>
+  <si>
     <t>剃须膏,</t>
   </si>
   <si>
@@ -538,288 +745,571 @@
     <t>0913-3818118</t>
   </si>
   <si>
+    <t>xie_shitong@189.com</t>
+  </si>
+  <si>
+    <t>谢-27</t>
+  </si>
+  <si>
     <t>CN140513610086</t>
   </si>
   <si>
+    <t>note-28</t>
+  </si>
+  <si>
     <t>test0539</t>
   </si>
   <si>
+    <t>xst-1</t>
+  </si>
+  <si>
+    <t>xie_shitong@190.com</t>
+  </si>
+  <si>
+    <t>谢-28</t>
+  </si>
+  <si>
     <t>CN140513463206</t>
   </si>
   <si>
     <t>鞋类</t>
   </si>
   <si>
+    <t>note-29</t>
+  </si>
+  <si>
     <t>女士T恤衫,洗甲液,</t>
   </si>
   <si>
     <t>test0540</t>
   </si>
   <si>
+    <t>xst-2</t>
+  </si>
+  <si>
     <t>宝安区</t>
   </si>
   <si>
+    <t>xie_shitong@191.com</t>
+  </si>
+  <si>
+    <t>谢-29</t>
+  </si>
+  <si>
     <t>CN140513028352</t>
   </si>
   <si>
     <t>皮鞋</t>
   </si>
   <si>
+    <t>note-30</t>
+  </si>
+  <si>
     <t>生发剂,</t>
   </si>
   <si>
     <t>test0541</t>
   </si>
   <si>
+    <t>xst-3</t>
+  </si>
+  <si>
     <t>宝民二路</t>
   </si>
   <si>
+    <t>xie_shitong@192.com</t>
+  </si>
+  <si>
+    <t>谢-30</t>
+  </si>
+  <si>
     <t>CN140514620285</t>
   </si>
   <si>
     <t>中筒靴子</t>
   </si>
   <si>
+    <t>note-31</t>
+  </si>
+  <si>
     <t>吸奶器,</t>
   </si>
   <si>
     <t>test0542</t>
   </si>
   <si>
+    <t>xst-4</t>
+  </si>
+  <si>
+    <t>xie_shitong@193.com</t>
+  </si>
+  <si>
+    <t>谢-31</t>
+  </si>
+  <si>
     <t>CN140514553041</t>
   </si>
   <si>
     <t>运动休闲鞋</t>
   </si>
   <si>
+    <t>note-32</t>
+  </si>
+  <si>
     <t>test0543</t>
   </si>
   <si>
+    <t>xst-5</t>
+  </si>
+  <si>
     <t>宝民二路5502</t>
   </si>
   <si>
+    <t>xie_shitong@194.com</t>
+  </si>
+  <si>
     <t>25010219790801499X</t>
   </si>
   <si>
+    <t>谢-32</t>
+  </si>
+  <si>
     <t>CN140514375181</t>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
+    <t>note-33</t>
+  </si>
+  <si>
     <t>test0544</t>
   </si>
   <si>
+    <t>xst-6</t>
+  </si>
+  <si>
     <t>宝民二路翠景居508</t>
   </si>
   <si>
+    <t>xie_shitong@195.com</t>
+  </si>
+  <si>
+    <t>谢-33</t>
+  </si>
+  <si>
     <t>CN140514630013</t>
   </si>
   <si>
     <t>箱包/手包</t>
   </si>
   <si>
+    <t>note-34</t>
+  </si>
+  <si>
     <t>test0545</t>
   </si>
   <si>
+    <t>xst-7</t>
+  </si>
+  <si>
     <t>宝民二路翠景居B405501</t>
   </si>
   <si>
+    <t>xie_shitong@196.com</t>
+  </si>
+  <si>
+    <t>谢-34</t>
+  </si>
+  <si>
     <t>CN140514874742</t>
   </si>
   <si>
     <t>钱包</t>
   </si>
   <si>
+    <t>note-35</t>
+  </si>
+  <si>
     <t>test0546</t>
   </si>
   <si>
+    <t>xst-8</t>
+  </si>
+  <si>
     <t>宝民二路翠景居B5001</t>
   </si>
   <si>
+    <t>276503124@qq.com</t>
+  </si>
+  <si>
+    <t>谢-35</t>
+  </si>
+  <si>
     <t>CN140514361255</t>
   </si>
   <si>
     <t>其他品牌包包（价值800人民币以下）</t>
   </si>
   <si>
+    <t>note-36</t>
+  </si>
+  <si>
     <t>手推车,</t>
   </si>
   <si>
     <t>test0547</t>
   </si>
   <si>
+    <t>xst-9</t>
+  </si>
+  <si>
     <t>宝民二路翠景居B5502</t>
   </si>
   <si>
+    <t>276503125@qq.com</t>
+  </si>
+  <si>
+    <t>谢-36</t>
+  </si>
+  <si>
     <t>CN140514010470</t>
   </si>
   <si>
     <t>拉杆箱/皮箱</t>
   </si>
   <si>
+    <t>note-37</t>
+  </si>
+  <si>
     <t>test0548</t>
   </si>
   <si>
+    <t>谢世同-1</t>
+  </si>
+  <si>
     <t>宝民二路翠景居B栋二501</t>
   </si>
   <si>
+    <t>276503126@qq.com</t>
+  </si>
+  <si>
+    <t>谢-37</t>
+  </si>
+  <si>
     <t>CN140514246537</t>
   </si>
   <si>
     <t>电脑包</t>
   </si>
   <si>
+    <t>note-38</t>
+  </si>
+  <si>
     <t>test0549</t>
   </si>
   <si>
+    <t>谢世同-2</t>
+  </si>
+  <si>
+    <t>276503127@qq.com</t>
+  </si>
+  <si>
+    <t>谢-38</t>
+  </si>
+  <si>
     <t>CN140514384702</t>
   </si>
   <si>
     <t>LV/GUCCI（以上级别）手袋/背包</t>
   </si>
   <si>
+    <t>note-39</t>
+  </si>
+  <si>
     <t>test0550</t>
   </si>
   <si>
+    <t>谢世同-3</t>
+  </si>
+  <si>
+    <t>276503128@qq.com</t>
+  </si>
+  <si>
+    <t>谢-39</t>
+  </si>
+  <si>
     <t>CN140514504560</t>
   </si>
   <si>
     <t>清洁护理类</t>
   </si>
   <si>
+    <t>note-40</t>
+  </si>
+  <si>
     <t>睫毛液(膏),</t>
   </si>
   <si>
     <t>test0551</t>
   </si>
   <si>
+    <t>谢世同-4</t>
+  </si>
+  <si>
+    <t>276503129@qq.com</t>
+  </si>
+  <si>
+    <t>谢-40</t>
+  </si>
+  <si>
     <t>CN140514161217</t>
   </si>
   <si>
     <t>洗面奶</t>
   </si>
   <si>
+    <t>note-41</t>
+  </si>
+  <si>
     <t>test0552</t>
   </si>
   <si>
+    <t>谢世同-5</t>
+  </si>
+  <si>
     <t>testestset</t>
   </si>
   <si>
+    <t>276503130@qq.com</t>
+  </si>
+  <si>
+    <t>谢-41</t>
+  </si>
+  <si>
     <t>CN140514487682</t>
   </si>
   <si>
     <t>卸妆水(乳)</t>
   </si>
   <si>
+    <t>note-42</t>
+  </si>
+  <si>
     <t>test0553</t>
   </si>
   <si>
+    <t>谢世同-6</t>
+  </si>
+  <si>
     <t>asdasdasd</t>
   </si>
   <si>
+    <t>276503131@qq.com</t>
+  </si>
+  <si>
+    <t>谢-42</t>
+  </si>
+  <si>
     <t>CN140514108237</t>
   </si>
   <si>
     <t>清洁霜(蜜)</t>
   </si>
   <si>
+    <t>note-43</t>
+  </si>
+  <si>
     <t>test0554</t>
   </si>
   <si>
+    <t>谢世同-7</t>
+  </si>
+  <si>
     <t>assdfsdf</t>
   </si>
   <si>
+    <t>276503132@qq.com</t>
+  </si>
+  <si>
+    <t>谢-43</t>
+  </si>
+  <si>
     <t>CN140514255865</t>
   </si>
   <si>
     <t>面膜</t>
   </si>
   <si>
+    <t>note-44</t>
+  </si>
+  <si>
     <t>test0555</t>
   </si>
   <si>
+    <t>谢世同-8</t>
+  </si>
+  <si>
+    <t>276503133@qq.com</t>
+  </si>
+  <si>
+    <t>谢-44</t>
+  </si>
+  <si>
     <t>CN140514005618</t>
   </si>
   <si>
     <t>面霜</t>
   </si>
   <si>
+    <t>note-45</t>
+  </si>
+  <si>
     <t>test0556</t>
   </si>
   <si>
+    <t>谢世同-9</t>
+  </si>
+  <si>
+    <t>276503134@qq.com</t>
+  </si>
+  <si>
+    <t>谢-45</t>
+  </si>
+  <si>
     <t>CN140515874243</t>
   </si>
   <si>
     <t>痱子粉</t>
   </si>
   <si>
+    <t>note-46</t>
+  </si>
+  <si>
     <t>test0557</t>
   </si>
   <si>
+    <t>谢世同-10</t>
+  </si>
+  <si>
     <t>xxxxxx</t>
   </si>
   <si>
+    <t>276503135@qq.com</t>
+  </si>
+  <si>
+    <t>谢-46</t>
+  </si>
+  <si>
     <t>CN140515275024</t>
   </si>
   <si>
     <t>爽身粉</t>
   </si>
   <si>
+    <t>note-47</t>
+  </si>
+  <si>
     <t>儿童自行车,婴儿监视器,</t>
   </si>
   <si>
     <t>test0558</t>
   </si>
   <si>
+    <t>谢世同-11</t>
+  </si>
+  <si>
     <t>蛇口赤湾36号</t>
   </si>
   <si>
+    <t>276503136@qq.com</t>
+  </si>
+  <si>
+    <t>谢-47</t>
+  </si>
+  <si>
     <t>CN140515478673</t>
   </si>
   <si>
     <t>剃须膏</t>
   </si>
   <si>
+    <t>note-48</t>
+  </si>
+  <si>
     <t>test0559</t>
   </si>
   <si>
+    <t>谢世同-12</t>
+  </si>
+  <si>
+    <t>276503137@qq.com</t>
+  </si>
+  <si>
+    <t>谢-48</t>
+  </si>
+  <si>
     <t>CN140515510223</t>
   </si>
   <si>
     <t>洗甲液</t>
   </si>
   <si>
+    <t>note-49</t>
+  </si>
+  <si>
     <t>test0560</t>
   </si>
   <si>
+    <t>谢世同-13</t>
+  </si>
+  <si>
     <t>蛇口</t>
   </si>
   <si>
+    <t>276503138@qq.com</t>
+  </si>
+  <si>
+    <t>谢-49</t>
+  </si>
+  <si>
     <t>CN140515557438</t>
   </si>
   <si>
     <t>唇部卸妆液</t>
   </si>
   <si>
+    <t>note-50</t>
+  </si>
+  <si>
     <t>test0561</t>
   </si>
   <si>
+    <t>谢世同-14</t>
+  </si>
+  <si>
     <t>蛇口赤湾</t>
+  </si>
+  <si>
+    <t>276503139@qq.com</t>
+  </si>
+  <si>
+    <t>谢-50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -827,30 +1317,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,7 +1355,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,29 +1371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,9 +1392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,6 +1401,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,32 +1461,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,19 +1492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +1510,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,85 +1564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,31 +1606,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,11 +1695,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,32 +1755,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,17 +1783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1279,10 +1791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,141 +1803,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,17 +2269,21 @@
   <sheetPr/>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="12" max="14" width="12.8571428571429"/>
-    <col min="16" max="16" width="9.57142857142857"/>
-    <col min="18" max="18" width="9.57142857142857"/>
-    <col min="20" max="21" width="12.8571428571429"/>
-    <col min="24" max="24" width="22.4285714285714" style="1"/>
+    <col min="4" max="4" width="16.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.71428571428571" customWidth="1"/>
+    <col min="11" max="13" width="12.8571428571429"/>
+    <col min="15" max="15" width="9.57142857142857"/>
+    <col min="17" max="17" width="9.57142857142857"/>
+    <col min="19" max="20" width="12.8571428571429"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="23" max="23" width="22.4285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1774,7 +2302,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1825,2688 +2353,3490 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" ht="13.5" spans="1:24">
       <c r="A2">
         <v>610054</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>8</v>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
         <v>26</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42556.446400463</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
         <v>29</v>
       </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>20141125</v>
+      </c>
       <c r="L2">
-        <v>20141125</v>
+        <v>20141031001</v>
       </c>
       <c r="M2">
-        <v>20141031001</v>
+        <v>214051405</v>
       </c>
       <c r="N2">
-        <v>214051405</v>
-      </c>
-      <c r="O2">
         <v>24.99</v>
       </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
       <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2">
+        <v>300170</v>
       </c>
       <c r="S2">
-        <v>300170</v>
-      </c>
-      <c r="T2">
         <v>13000001111</v>
       </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="1">
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="2">
         <v>4.31103198611458e+17</v>
       </c>
+      <c r="X2" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" ht="13.5" spans="1:24">
       <c r="A3">
         <v>610055</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42557.446412037</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>2014112520141120</v>
       </c>
       <c r="L3">
-        <v>2014112520141120</v>
+        <v>20141031002</v>
       </c>
       <c r="M3">
-        <v>20141031002</v>
+        <v>214051406</v>
       </c>
       <c r="N3">
-        <v>214051406</v>
-      </c>
-      <c r="O3">
         <v>34.99</v>
       </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="Q3">
+        <v>518000</v>
       </c>
       <c r="R3">
-        <v>518000</v>
+        <v>302147</v>
       </c>
       <c r="S3">
-        <v>302147</v>
-      </c>
-      <c r="T3">
         <v>13000004444</v>
       </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="1">
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="2">
         <v>4.31181198404164e+17</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" ht="13.5" spans="1:24">
       <c r="A4">
         <v>610056</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>8</v>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42558.4464236111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>20141125</v>
       </c>
       <c r="L4">
-        <v>20141125</v>
+        <v>20141031003</v>
       </c>
       <c r="M4">
-        <v>20141031003</v>
+        <v>214051407</v>
       </c>
       <c r="N4">
-        <v>214051407</v>
+        <v>24.99</v>
       </c>
       <c r="O4">
-        <v>24.99</v>
-      </c>
-      <c r="P4">
         <v>20110513</v>
       </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>5555555</v>
+      </c>
       <c r="R4">
-        <v>5555555</v>
+        <v>302147</v>
       </c>
       <c r="S4">
-        <v>302147</v>
-      </c>
-      <c r="T4">
         <v>13000556633</v>
       </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="2">
         <v>4.31223198809062e+17</v>
       </c>
+      <c r="X4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" ht="13.5" spans="1:24">
       <c r="A5">
         <v>610057</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>45</v>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42559.4464351852</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>9110091</v>
+      </c>
+      <c r="L5">
+        <v>20141031004</v>
+      </c>
+      <c r="M5">
+        <v>14052102</v>
+      </c>
+      <c r="N5">
+        <v>34.99</v>
+      </c>
+      <c r="O5">
+        <v>20160513</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5">
+        <v>518000</v>
+      </c>
+      <c r="R5">
+        <v>310000</v>
+      </c>
+      <c r="S5">
+        <v>13000556633</v>
+      </c>
+      <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5">
-        <v>9110091</v>
-      </c>
-      <c r="M5">
-        <v>20141031004</v>
-      </c>
-      <c r="N5">
-        <v>14052102</v>
-      </c>
-      <c r="O5">
-        <v>34.99</v>
-      </c>
-      <c r="P5">
-        <v>20160513</v>
-      </c>
-      <c r="R5">
-        <v>518000</v>
-      </c>
-      <c r="S5">
-        <v>310000</v>
-      </c>
-      <c r="T5">
-        <v>13000556633</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="U5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="2">
         <v>4.31223199003102e+17</v>
       </c>
+      <c r="X5" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" ht="13.5" spans="1:24">
       <c r="A6">
         <v>610058</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42560.4464467593</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <v>9110092</v>
       </c>
       <c r="L6">
-        <v>9110092</v>
+        <v>20141031005</v>
       </c>
       <c r="M6">
-        <v>20141031005</v>
+        <v>14052103</v>
       </c>
       <c r="N6">
-        <v>14052103</v>
-      </c>
-      <c r="O6">
         <v>24.99</v>
       </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="Q6">
+        <v>101802</v>
       </c>
       <c r="R6">
-        <v>101802</v>
+        <v>320147</v>
       </c>
       <c r="S6">
-        <v>320147</v>
-      </c>
-      <c r="T6">
         <v>13029218273</v>
       </c>
-      <c r="U6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="2">
         <v>4.31223199005302e+17</v>
       </c>
+      <c r="X6" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" ht="13.5" spans="1:24">
       <c r="A7">
         <v>610059</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>48</v>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42561.4464583333</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>9110091</v>
       </c>
       <c r="L7">
-        <v>9110091</v>
+        <v>20141031006</v>
       </c>
       <c r="M7">
-        <v>20141031006</v>
+        <v>14052104</v>
       </c>
       <c r="N7">
-        <v>14052104</v>
-      </c>
-      <c r="O7">
         <v>34.99</v>
       </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
       <c r="P7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7">
+        <v>323232</v>
       </c>
       <c r="S7">
-        <v>323232</v>
-      </c>
-      <c r="T7">
         <v>13100001111</v>
       </c>
-      <c r="U7" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" s="2">
         <v>4.31223199005302e+17</v>
       </c>
+      <c r="X7" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" ht="13.5" spans="1:24">
       <c r="A8">
         <v>610060</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>48</v>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42562.4464699074</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>9110092</v>
       </c>
       <c r="L8">
-        <v>9110092</v>
+        <v>20141031007</v>
       </c>
       <c r="M8">
-        <v>20141031007</v>
+        <v>140521008</v>
       </c>
       <c r="N8">
-        <v>140521008</v>
-      </c>
-      <c r="O8">
         <v>24.99</v>
       </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="Q8">
+        <v>20141030</v>
       </c>
       <c r="R8">
-        <v>20141030</v>
+        <v>325479</v>
       </c>
       <c r="S8">
-        <v>325479</v>
-      </c>
-      <c r="T8">
         <v>13165659999</v>
       </c>
-      <c r="U8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="2">
         <v>4.31223199005302e+17</v>
       </c>
+      <c r="X8" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" ht="13.5" spans="1:24">
       <c r="A9">
         <v>610061</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
-        <v>48</v>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42563.4464814815</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9">
+        <v>9120001</v>
       </c>
       <c r="L9">
-        <v>9120001</v>
+        <v>20141031008</v>
       </c>
       <c r="M9">
-        <v>20141031008</v>
+        <v>140521009</v>
       </c>
       <c r="N9">
-        <v>140521009</v>
-      </c>
-      <c r="O9">
         <v>34.99</v>
       </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>22222222</v>
       </c>
       <c r="R9">
-        <v>22222222</v>
+        <v>326548</v>
       </c>
       <c r="S9">
-        <v>326548</v>
-      </c>
-      <c r="T9">
         <v>13200001111</v>
       </c>
-      <c r="U9" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="2">
         <v>4.32615174212236e+17</v>
       </c>
+      <c r="X9" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" ht="13.5" spans="1:24">
       <c r="A10">
         <v>610062</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42564.4464930556</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10">
+        <v>9120002</v>
       </c>
       <c r="L10">
-        <v>9120002</v>
+        <v>201410310044</v>
       </c>
       <c r="M10">
-        <v>201410310044</v>
+        <v>140521010</v>
       </c>
       <c r="N10">
-        <v>140521010</v>
-      </c>
-      <c r="O10">
         <v>24.99</v>
       </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
       <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10">
+        <v>326598</v>
       </c>
       <c r="S10">
-        <v>326598</v>
-      </c>
-      <c r="T10">
         <v>13212125454</v>
       </c>
-      <c r="U10" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>71</v>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" ht="13.5" spans="1:24">
       <c r="A11">
         <v>610063</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>48</v>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42565.4465046296</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11">
+        <v>9120001</v>
       </c>
       <c r="L11">
-        <v>9120001</v>
+        <v>555051206</v>
       </c>
       <c r="M11">
-        <v>555051206</v>
+        <v>140521011</v>
       </c>
       <c r="N11">
-        <v>140521011</v>
-      </c>
-      <c r="O11">
         <v>34.99</v>
       </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="Q11">
+        <v>5555555</v>
       </c>
       <c r="R11">
-        <v>5555555</v>
+        <v>326598</v>
       </c>
       <c r="S11">
-        <v>326598</v>
+        <v>13212125454</v>
       </c>
       <c r="T11">
-        <v>13212125454</v>
-      </c>
-      <c r="U11">
         <v>75526859982</v>
       </c>
-      <c r="X11" s="1">
+      <c r="U11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="2">
         <v>1.23456000000001e+17</v>
       </c>
+      <c r="X11" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" ht="13.5" spans="1:24">
       <c r="A12">
         <v>610064</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
-        <v>48</v>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
+        <v>107</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42566.4465162037</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>9120002</v>
       </c>
       <c r="L12">
-        <v>9120002</v>
+        <v>555051207</v>
       </c>
       <c r="M12">
-        <v>555051207</v>
+        <v>140521012</v>
       </c>
       <c r="N12">
-        <v>140521012</v>
-      </c>
-      <c r="O12">
         <v>24.99</v>
       </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
       <c r="P12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12">
+        <v>330013</v>
       </c>
       <c r="S12">
-        <v>330013</v>
+        <v>13212126363</v>
       </c>
       <c r="T12">
-        <v>13212126363</v>
-      </c>
-      <c r="U12">
         <v>75526859982</v>
       </c>
-      <c r="X12" s="1">
+      <c r="U12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W12" s="2">
         <v>4.4010113010202e+17</v>
       </c>
+      <c r="X12" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" ht="13.5" spans="1:24">
       <c r="A13">
         <v>610065</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
-        <v>48</v>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42567.4465277778</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>9120001</v>
       </c>
       <c r="L13">
-        <v>9120001</v>
+        <v>920051303</v>
       </c>
       <c r="M13">
-        <v>920051303</v>
+        <v>140521013</v>
       </c>
       <c r="N13">
-        <v>140521013</v>
-      </c>
-      <c r="O13">
         <v>34.99</v>
       </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
       <c r="P13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13">
+        <v>330013</v>
       </c>
       <c r="S13">
-        <v>330013</v>
+        <v>13212356549</v>
       </c>
       <c r="T13">
-        <v>13212356549</v>
-      </c>
-      <c r="U13">
         <v>75526859982</v>
       </c>
-      <c r="X13" s="1">
+      <c r="U13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="2">
         <v>4.40101198606243e+17</v>
       </c>
+      <c r="X13" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" ht="13.5" spans="1:24">
       <c r="A14">
         <v>610066</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
-        <v>48</v>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42568.4465393519</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>9120002</v>
       </c>
       <c r="L14">
-        <v>9120002</v>
+        <v>920051301</v>
       </c>
       <c r="M14">
-        <v>920051301</v>
+        <v>140521013</v>
       </c>
       <c r="N14">
-        <v>140521013</v>
-      </c>
-      <c r="O14">
         <v>24.99</v>
       </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
       <c r="P14" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14">
+        <v>330013</v>
       </c>
       <c r="S14">
-        <v>330013</v>
+        <v>13213214521</v>
       </c>
       <c r="T14">
-        <v>13213214521</v>
-      </c>
-      <c r="U14">
         <v>75526859982</v>
       </c>
-      <c r="X14" s="1">
+      <c r="U14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W14" s="2">
         <v>4.40103382716287e+17</v>
       </c>
+      <c r="X14" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" ht="13.5" spans="1:24">
       <c r="A15">
         <v>610067</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>48</v>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42569.4465509259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s">
-        <v>95</v>
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15">
+        <v>920051402</v>
       </c>
       <c r="M15">
-        <v>920051402</v>
+        <v>140521014</v>
       </c>
       <c r="N15">
-        <v>140521014</v>
-      </c>
-      <c r="O15">
         <v>34.99</v>
       </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
       <c r="P15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" t="s">
-        <v>91</v>
+        <v>134</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15">
+        <v>330013</v>
       </c>
       <c r="S15">
-        <v>330013</v>
-      </c>
-      <c r="T15">
         <v>13222222222</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T15" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="X15" s="1">
+      <c r="W15" s="2">
         <v>4.40103391827261e+17</v>
       </c>
+      <c r="X15" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" ht="13.5" spans="1:24">
       <c r="A16">
         <v>610068</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
-        <v>48</v>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
+        <v>137</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42570.4465625</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16">
+        <v>920051403</v>
       </c>
       <c r="M16">
-        <v>920051403</v>
+        <v>140521015</v>
       </c>
       <c r="N16">
-        <v>140521015</v>
-      </c>
-      <c r="O16">
         <v>24.99</v>
       </c>
+      <c r="O16" t="s">
+        <v>141</v>
+      </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>134</v>
+      </c>
+      <c r="Q16">
+        <v>110000</v>
       </c>
       <c r="R16">
-        <v>110000</v>
+        <v>330013</v>
       </c>
       <c r="S16">
-        <v>330013</v>
-      </c>
-      <c r="T16">
         <v>13225546558</v>
       </c>
-      <c r="U16" t="s">
+      <c r="T16" t="s">
+        <v>135</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="X16" s="1">
+      <c r="W16" s="2">
         <v>4.40301139827362e+17</v>
       </c>
+      <c r="X16" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" ht="13.5" spans="1:24">
       <c r="A17">
         <v>610069</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>48</v>
+      <c r="C17" t="s">
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>102</v>
+        <v>143</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42571.4465740741</v>
+      </c>
+      <c r="G17" t="s">
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+      <c r="K17">
+        <v>9120005</v>
       </c>
       <c r="L17">
-        <v>9120005</v>
+        <v>920051404</v>
       </c>
       <c r="M17">
-        <v>920051404</v>
+        <v>140521016</v>
       </c>
       <c r="N17">
-        <v>140521016</v>
-      </c>
-      <c r="O17">
         <v>34.99</v>
       </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
       <c r="P17" t="s">
-        <v>105</v>
-      </c>
-      <c r="R17" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17">
+        <v>330013</v>
       </c>
       <c r="S17">
-        <v>330013</v>
-      </c>
-      <c r="T17">
         <v>13232320011</v>
       </c>
-      <c r="U17" t="s">
-        <v>106</v>
-      </c>
-      <c r="X17" s="1">
+      <c r="T17" t="s">
+        <v>148</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="2">
         <v>4.40301187625162e+17</v>
       </c>
+      <c r="X17" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" ht="13.5" spans="1:24">
       <c r="A18">
         <v>610070</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
-        <v>48</v>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>107</v>
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
+        <v>42572.4465856482</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>9120005</v>
       </c>
       <c r="L18">
-        <v>9120005</v>
+        <v>920051405</v>
       </c>
       <c r="M18">
-        <v>920051405</v>
+        <v>140521017</v>
       </c>
       <c r="N18">
-        <v>140521017</v>
-      </c>
-      <c r="O18">
         <v>24.99</v>
       </c>
+      <c r="O18" t="s">
+        <v>154</v>
+      </c>
       <c r="P18" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18">
+        <v>330013</v>
       </c>
       <c r="S18">
-        <v>330013</v>
-      </c>
-      <c r="T18">
         <v>13245623214</v>
       </c>
-      <c r="U18" t="s">
-        <v>106</v>
-      </c>
-      <c r="X18" s="1">
+      <c r="T18" t="s">
+        <v>148</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W18" s="2">
         <v>4.40301192783212e+16</v>
       </c>
+      <c r="X18" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" ht="13.5" spans="1:24">
       <c r="A19">
         <v>610071</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
-        <v>48</v>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>42573.4465972222</v>
+      </c>
+      <c r="G19" t="s">
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" t="s">
-        <v>115</v>
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19">
+        <v>9120007</v>
       </c>
       <c r="L19">
-        <v>9120007</v>
+        <v>920051455</v>
       </c>
       <c r="M19">
-        <v>920051455</v>
+        <v>140522006</v>
       </c>
       <c r="N19">
-        <v>140522006</v>
-      </c>
-      <c r="O19">
         <v>24.99</v>
       </c>
+      <c r="O19" t="s">
+        <v>162</v>
+      </c>
       <c r="P19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>163</v>
+      </c>
+      <c r="R19">
+        <v>331122</v>
       </c>
       <c r="S19">
-        <v>331122</v>
-      </c>
-      <c r="T19">
         <v>13245673244</v>
       </c>
-      <c r="U19" t="s">
-        <v>118</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="T19" t="s">
+        <v>164</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W19" s="2">
         <v>4.40301198202121e+17</v>
       </c>
+      <c r="X19" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" ht="13.5" spans="1:24">
       <c r="A20">
         <v>610072</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>48</v>
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>119</v>
+        <v>166</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>42574.4466087963</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" t="s">
-        <v>122</v>
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20">
+        <v>9120007</v>
       </c>
       <c r="L20">
-        <v>9120007</v>
+        <v>214051405</v>
       </c>
       <c r="M20">
-        <v>214051405</v>
+        <v>1.40522007140522e+17</v>
       </c>
       <c r="N20">
-        <v>1.40522007140522e+17</v>
-      </c>
-      <c r="O20">
         <v>24.99</v>
       </c>
+      <c r="O20" t="s">
+        <v>171</v>
+      </c>
       <c r="P20" t="s">
-        <v>123</v>
-      </c>
-      <c r="R20" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>172</v>
+      </c>
+      <c r="R20">
+        <v>331122</v>
       </c>
       <c r="S20">
-        <v>331122</v>
-      </c>
-      <c r="T20">
         <v>13245678542</v>
       </c>
-      <c r="U20" t="s">
-        <v>125</v>
-      </c>
-      <c r="X20" s="1">
+      <c r="T20" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W20" s="2">
         <v>4.40301198706234e+17</v>
       </c>
+      <c r="X20" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" ht="13.5" spans="1:24">
       <c r="A21">
         <v>610073</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21">
-        <v>48</v>
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42575.4466203704</v>
+      </c>
+      <c r="G21" t="s">
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" t="s">
-        <v>129</v>
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21">
+        <v>91200017</v>
       </c>
       <c r="L21">
-        <v>91200017</v>
+        <v>214051406</v>
       </c>
       <c r="M21">
-        <v>214051406</v>
+        <v>1.40522007140522e+26</v>
       </c>
       <c r="N21">
-        <v>1.40522007140522e+26</v>
-      </c>
-      <c r="O21">
         <v>24.99</v>
       </c>
+      <c r="O21" t="s">
+        <v>180</v>
+      </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="Q21">
+        <v>18421321</v>
       </c>
       <c r="R21">
-        <v>18421321</v>
+        <v>332121</v>
       </c>
       <c r="S21">
-        <v>332121</v>
-      </c>
-      <c r="T21">
         <v>13245678547</v>
       </c>
-      <c r="U21" t="s">
-        <v>125</v>
-      </c>
-      <c r="X21" s="1">
+      <c r="T21" t="s">
+        <v>173</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W21" s="2">
         <v>4.40301198706285e+17</v>
       </c>
+      <c r="X21" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" ht="13.5" spans="1:24">
       <c r="A22">
         <v>610074</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
-        <v>48</v>
+      <c r="C22" t="s">
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
+        <v>182</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>42576.4466319444</v>
+      </c>
+      <c r="G22" t="s">
+        <v>183</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22">
+        <v>91200017</v>
+      </c>
+      <c r="L22">
+        <v>214051407</v>
+      </c>
+      <c r="M22">
+        <v>140522012</v>
+      </c>
+      <c r="N22">
+        <v>24.99</v>
+      </c>
+      <c r="O22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" t="s">
         <v>134</v>
       </c>
-      <c r="L22">
-        <v>91200017</v>
-      </c>
-      <c r="M22">
-        <v>214051407</v>
-      </c>
-      <c r="N22">
-        <v>140522012</v>
-      </c>
-      <c r="O22">
-        <v>24.99</v>
-      </c>
-      <c r="P22" t="s">
-        <v>135</v>
-      </c>
-      <c r="R22" t="s">
-        <v>136</v>
+      <c r="Q22" t="s">
+        <v>188</v>
+      </c>
+      <c r="R22">
+        <v>332800</v>
       </c>
       <c r="S22">
-        <v>332800</v>
-      </c>
-      <c r="T22">
         <v>13245678547</v>
       </c>
-      <c r="U22" t="s">
-        <v>137</v>
-      </c>
-      <c r="X22" s="1">
+      <c r="T22" t="s">
+        <v>189</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22" s="2">
         <v>4.40301199004124e+17</v>
       </c>
+      <c r="X22" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" ht="13.5" spans="1:24">
       <c r="A23">
         <v>610075</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42577.4466435185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>192</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>194</v>
+      </c>
+      <c r="K23">
+        <v>91200017</v>
       </c>
       <c r="L23">
-        <v>91200017</v>
+        <v>14052102</v>
       </c>
       <c r="M23">
-        <v>14052102</v>
+        <v>140522013</v>
       </c>
       <c r="N23">
-        <v>140522013</v>
-      </c>
-      <c r="O23">
         <v>24.99</v>
       </c>
+      <c r="O23" t="s">
+        <v>195</v>
+      </c>
       <c r="P23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R23" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23">
+        <v>334400</v>
       </c>
       <c r="S23">
-        <v>334400</v>
-      </c>
-      <c r="T23">
         <v>13245678547</v>
       </c>
-      <c r="U23" t="s">
-        <v>142</v>
-      </c>
-      <c r="X23" s="1">
+      <c r="T23" t="s">
+        <v>196</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W23" s="2">
         <v>4.40301982010108e+16</v>
       </c>
+      <c r="X23" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" ht="13.5" spans="1:24">
       <c r="A24">
         <v>610076</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
+        <v>199</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1">
+        <v>42578.4466550926</v>
+      </c>
+      <c r="G24" t="s">
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="I24" t="s">
-        <v>145</v>
-      </c>
-      <c r="K24" t="s">
-        <v>146</v>
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24">
+        <v>91200027</v>
       </c>
       <c r="L24">
-        <v>91200027</v>
+        <v>14052103</v>
       </c>
       <c r="M24">
-        <v>14052103</v>
+        <v>523000105230001</v>
       </c>
       <c r="N24">
-        <v>523000105230001</v>
-      </c>
-      <c r="O24">
         <v>24.99</v>
       </c>
+      <c r="O24" t="s">
+        <v>204</v>
+      </c>
       <c r="P24" t="s">
-        <v>147</v>
-      </c>
-      <c r="R24" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24">
+        <v>400000</v>
       </c>
       <c r="S24">
-        <v>400000</v>
-      </c>
-      <c r="T24">
         <v>13245678547</v>
       </c>
-      <c r="U24" t="s">
-        <v>148</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>149</v>
+      <c r="T24" t="s">
+        <v>205</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" ht="13.5" spans="1:24">
       <c r="A25">
         <v>610077</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
+        <v>209</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1">
+        <v>42579.4466666667</v>
+      </c>
+      <c r="G25" t="s">
+        <v>210</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" t="s">
-        <v>153</v>
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25">
+        <v>888828</v>
       </c>
       <c r="L25">
-        <v>888828</v>
-      </c>
-      <c r="M25">
         <v>14052104</v>
       </c>
-      <c r="N25" t="s">
-        <v>154</v>
-      </c>
-      <c r="O25">
+      <c r="M25" t="s">
+        <v>214</v>
+      </c>
+      <c r="N25">
         <v>24.99</v>
       </c>
+      <c r="O25" t="s">
+        <v>215</v>
+      </c>
       <c r="P25" t="s">
-        <v>155</v>
-      </c>
-      <c r="R25" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>112</v>
+      </c>
+      <c r="R25">
+        <v>419511</v>
       </c>
       <c r="S25">
-        <v>419511</v>
-      </c>
-      <c r="T25">
         <v>13245678547</v>
       </c>
-      <c r="U25" t="s">
-        <v>156</v>
-      </c>
-      <c r="X25" s="1">
+      <c r="T25" t="s">
+        <v>216</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="W25" s="2">
         <v>4.40921199309151e+17</v>
       </c>
+      <c r="X25" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" ht="13.5" spans="1:24">
       <c r="A26">
         <v>610078</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
-        <v>157</v>
+      <c r="F26" s="1">
+        <v>42580.4466782407</v>
+      </c>
+      <c r="G26" t="s">
+        <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26" t="s">
-        <v>160</v>
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26">
+        <v>888828</v>
       </c>
       <c r="L26">
-        <v>888828</v>
-      </c>
-      <c r="M26">
         <v>140521008</v>
       </c>
-      <c r="N26" t="s">
-        <v>161</v>
-      </c>
-      <c r="O26">
+      <c r="M26" t="s">
+        <v>224</v>
+      </c>
+      <c r="N26">
         <v>24.99</v>
       </c>
+      <c r="O26" t="s">
+        <v>225</v>
+      </c>
       <c r="P26" t="s">
-        <v>162</v>
-      </c>
-      <c r="R26" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R26">
+        <v>420116</v>
       </c>
       <c r="S26">
-        <v>420116</v>
-      </c>
-      <c r="T26">
         <v>13255660055</v>
       </c>
-      <c r="U26" t="s">
-        <v>163</v>
-      </c>
-      <c r="X26" s="1">
+      <c r="T26" t="s">
+        <v>226</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="W26" s="2">
         <v>4.40982198906072e+17</v>
       </c>
+      <c r="X26" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" ht="13.5" spans="1:24">
       <c r="A27">
         <v>610079</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>164</v>
+        <v>229</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42581.4466898148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27">
         <v>140521009</v>
       </c>
-      <c r="N27" t="s">
-        <v>166</v>
-      </c>
-      <c r="O27">
+      <c r="M27" t="s">
+        <v>232</v>
+      </c>
+      <c r="N27">
         <v>34.99</v>
       </c>
+      <c r="O27" t="s">
+        <v>233</v>
+      </c>
       <c r="P27" t="s">
-        <v>167</v>
-      </c>
-      <c r="R27" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>112</v>
+      </c>
+      <c r="R27">
+        <v>432000</v>
       </c>
       <c r="S27">
-        <v>432000</v>
-      </c>
-      <c r="T27">
         <v>13265479875</v>
       </c>
-      <c r="U27" t="s">
-        <v>163</v>
-      </c>
-      <c r="X27" s="1">
+      <c r="T27" t="s">
+        <v>226</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="W27" s="2">
         <v>4.41424197612226e+17</v>
       </c>
+      <c r="X27" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" ht="13.5" spans="1:24">
       <c r="A28">
         <v>610080</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42582.4467013889</v>
+      </c>
+      <c r="H28" t="s">
+        <v>237</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" t="s">
-        <v>170</v>
-      </c>
-      <c r="M28">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28">
         <v>140521010</v>
       </c>
-      <c r="N28" t="s">
-        <v>171</v>
-      </c>
-      <c r="O28">
+      <c r="M28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N28">
         <v>24.99</v>
       </c>
+      <c r="O28" t="s">
+        <v>241</v>
+      </c>
       <c r="P28" t="s">
-        <v>172</v>
-      </c>
-      <c r="R28" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R28">
+        <v>433000</v>
       </c>
       <c r="S28">
-        <v>433000</v>
-      </c>
-      <c r="T28">
         <v>13265498896</v>
       </c>
-      <c r="U28" t="s">
-        <v>173</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="T28" t="s">
+        <v>242</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="W28" s="2">
         <v>4.41424197612226e+17</v>
       </c>
+      <c r="X28" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" ht="13.5" spans="1:24">
       <c r="A29">
         <v>610081</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>174</v>
+        <v>245</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42583.446712963</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>140521011</v>
       </c>
       <c r="M29">
-        <v>140521011</v>
+        <v>22222222</v>
       </c>
       <c r="N29">
-        <v>22222222</v>
-      </c>
-      <c r="O29">
         <v>34.99</v>
       </c>
+      <c r="O29" t="s">
+        <v>247</v>
+      </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>248</v>
+      </c>
+      <c r="Q29">
+        <v>518000</v>
       </c>
       <c r="R29">
-        <v>518000</v>
+        <v>444444</v>
       </c>
       <c r="S29">
-        <v>444444</v>
-      </c>
-      <c r="T29">
         <v>13300002222</v>
       </c>
-      <c r="U29" t="s">
-        <v>173</v>
-      </c>
-      <c r="X29" s="1">
+      <c r="T29" t="s">
+        <v>242</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="W29" s="2">
         <v>4.41424197612226e+17</v>
       </c>
+      <c r="X29" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" ht="13.5" spans="1:24">
       <c r="A30">
         <v>610082</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>176</v>
+        <v>251</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42584.446724537</v>
+      </c>
+      <c r="H30" t="s">
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" t="s">
-        <v>178</v>
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30">
+        <v>91200017</v>
       </c>
       <c r="L30">
-        <v>91200017</v>
+        <v>140521012</v>
       </c>
       <c r="M30">
-        <v>140521012</v>
+        <v>5230002</v>
       </c>
       <c r="N30">
-        <v>5230002</v>
-      </c>
-      <c r="O30">
         <v>24.99</v>
       </c>
+      <c r="O30" t="s">
+        <v>255</v>
+      </c>
       <c r="P30" t="s">
-        <v>179</v>
-      </c>
-      <c r="R30" t="s">
-        <v>180</v>
+        <v>256</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>257</v>
+      </c>
+      <c r="R30">
+        <v>454515</v>
       </c>
       <c r="S30">
-        <v>454515</v>
+        <v>13301012200</v>
       </c>
       <c r="T30">
-        <v>13301012200</v>
-      </c>
-      <c r="U30">
         <v>18938910000</v>
       </c>
-      <c r="X30" s="1">
+      <c r="U30" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="W30" s="2">
         <v>4.41522199114512e+17</v>
       </c>
+      <c r="X30" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" ht="13.5" spans="1:24">
       <c r="A31">
         <v>610083</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31">
-        <v>-1</v>
+      <c r="C31" t="s">
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>181</v>
+        <v>260</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>42585.4467361111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>261</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
-      </c>
-      <c r="K31" t="s">
-        <v>183</v>
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31">
+        <v>91200027</v>
       </c>
       <c r="L31">
-        <v>91200027</v>
+        <v>140521013</v>
       </c>
       <c r="M31">
-        <v>140521013</v>
+        <v>14052701</v>
       </c>
       <c r="N31">
-        <v>14052701</v>
-      </c>
-      <c r="O31">
         <v>24.99</v>
       </c>
+      <c r="O31" t="s">
+        <v>264</v>
+      </c>
       <c r="P31" t="s">
-        <v>184</v>
-      </c>
-      <c r="R31" t="s">
-        <v>185</v>
+        <v>265</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31">
+        <v>454545</v>
       </c>
       <c r="S31">
-        <v>454545</v>
+        <v>13333332222</v>
       </c>
       <c r="T31">
-        <v>13333332222</v>
-      </c>
-      <c r="U31">
         <v>18938910000</v>
       </c>
-      <c r="X31" s="1">
+      <c r="U31" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W31" s="2">
         <v>4415221992154650</v>
       </c>
+      <c r="X31" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" ht="13.5" spans="1:24">
       <c r="A32">
         <v>610084</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32">
-        <v>-1</v>
+      <c r="C32" t="s">
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
+        <v>269</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42586.4467476852</v>
+      </c>
+      <c r="H32" t="s">
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" t="s">
-        <v>188</v>
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32">
+        <v>888828</v>
       </c>
       <c r="L32">
-        <v>888828</v>
+        <v>1405210123</v>
       </c>
       <c r="M32">
-        <v>1405210123</v>
+        <v>1405270114052700</v>
       </c>
       <c r="N32">
-        <v>1405270114052700</v>
-      </c>
-      <c r="O32">
         <v>24.99</v>
       </c>
+      <c r="O32" t="s">
+        <v>273</v>
+      </c>
       <c r="P32" t="s">
-        <v>189</v>
-      </c>
-      <c r="R32" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>172</v>
+      </c>
+      <c r="R32">
+        <v>461366</v>
       </c>
       <c r="S32">
-        <v>461366</v>
+        <v>13333333333</v>
       </c>
       <c r="T32">
-        <v>13333333333</v>
-      </c>
-      <c r="U32">
         <v>18938910000</v>
       </c>
-      <c r="X32" s="1">
+      <c r="U32" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W32" s="2">
         <v>4.4343419840902e+17</v>
       </c>
+      <c r="X32" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" ht="13.5" spans="1:24">
       <c r="A33">
         <v>610085</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C33">
-        <v>-1</v>
+      <c r="C33" t="s">
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>190</v>
+        <v>277</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <v>42587.4467592593</v>
+      </c>
+      <c r="H33" t="s">
+        <v>278</v>
       </c>
       <c r="I33" t="s">
-        <v>191</v>
-      </c>
-      <c r="K33" t="s">
-        <v>36</v>
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <v>888828</v>
       </c>
       <c r="L33">
-        <v>888828</v>
+        <v>140521014</v>
       </c>
       <c r="M33">
-        <v>140521014</v>
+        <v>14052702</v>
       </c>
       <c r="N33">
-        <v>14052702</v>
-      </c>
-      <c r="O33">
         <v>34.99</v>
       </c>
+      <c r="O33" t="s">
+        <v>280</v>
+      </c>
       <c r="P33" t="s">
-        <v>192</v>
-      </c>
-      <c r="R33" t="s">
-        <v>193</v>
+        <v>281</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>282</v>
+      </c>
+      <c r="R33">
+        <v>461366</v>
       </c>
       <c r="S33">
-        <v>461366</v>
+        <v>13333333333</v>
       </c>
       <c r="T33">
-        <v>13333333333</v>
-      </c>
-      <c r="U33">
         <v>18938911111</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>194</v>
+      <c r="U33" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" ht="13.5" spans="1:24">
       <c r="A34">
         <v>610086</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>195</v>
+        <v>286</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42588.4467708333</v>
+      </c>
+      <c r="H34" t="s">
+        <v>287</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
-      </c>
-      <c r="K34" t="s">
-        <v>146</v>
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34">
+        <v>140521015</v>
       </c>
       <c r="M34">
-        <v>140521015</v>
+        <v>1405270214052700</v>
       </c>
       <c r="N34">
-        <v>1405270214052700</v>
-      </c>
-      <c r="O34">
         <v>24.99</v>
       </c>
+      <c r="O34" t="s">
+        <v>289</v>
+      </c>
       <c r="P34" t="s">
-        <v>197</v>
-      </c>
-      <c r="R34" t="s">
-        <v>198</v>
+        <v>290</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>291</v>
+      </c>
+      <c r="R34">
+        <v>511000</v>
       </c>
       <c r="S34">
-        <v>511000</v>
+        <v>13333333333</v>
       </c>
       <c r="T34">
-        <v>13333333333</v>
-      </c>
-      <c r="U34">
         <v>18938911111</v>
       </c>
-      <c r="X34" s="1">
+      <c r="U34" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="W34" s="2">
         <v>3.21456190012213e+17</v>
       </c>
+      <c r="X34" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" ht="13.5" spans="1:24">
       <c r="A35">
         <v>610087</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>199</v>
+        <v>294</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42589.4467824074</v>
+      </c>
+      <c r="H35" t="s">
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
+        <v>296</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>140521016</v>
       </c>
       <c r="M35">
-        <v>140521016</v>
+        <v>14052703</v>
       </c>
       <c r="N35">
-        <v>14052703</v>
-      </c>
-      <c r="O35">
         <v>24.99</v>
       </c>
+      <c r="O35" t="s">
+        <v>297</v>
+      </c>
       <c r="P35" t="s">
-        <v>201</v>
-      </c>
-      <c r="R35" t="s">
-        <v>202</v>
+        <v>298</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>299</v>
+      </c>
+      <c r="R35">
+        <v>512900</v>
       </c>
       <c r="S35">
-        <v>512900</v>
+        <v>13334566543</v>
       </c>
       <c r="T35">
-        <v>13334566543</v>
-      </c>
-      <c r="U35">
         <v>18938911111</v>
       </c>
-      <c r="X35" s="1">
+      <c r="U35" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="W35" s="2">
         <v>4.4512219841125e+17</v>
       </c>
+      <c r="X35" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" ht="13.5" spans="1:24">
       <c r="A36">
         <v>610088</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>203</v>
+        <v>302</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1">
+        <v>42590.4467939815</v>
+      </c>
+      <c r="H36" t="s">
+        <v>303</v>
       </c>
       <c r="I36" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" t="s">
-        <v>115</v>
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36">
+        <v>9120010</v>
       </c>
       <c r="L36">
-        <v>9120010</v>
+        <v>140521017</v>
       </c>
       <c r="M36">
-        <v>140521017</v>
+        <v>1405270314052700</v>
       </c>
       <c r="N36">
-        <v>1405270314052700</v>
-      </c>
-      <c r="O36">
         <v>34.99</v>
       </c>
+      <c r="O36" t="s">
+        <v>305</v>
+      </c>
       <c r="P36" t="s">
-        <v>205</v>
-      </c>
-      <c r="R36" t="s">
-        <v>206</v>
+        <v>306</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>307</v>
+      </c>
+      <c r="R36">
+        <v>512900</v>
       </c>
       <c r="S36">
-        <v>512900</v>
+        <v>13352556666</v>
       </c>
       <c r="T36">
-        <v>13352556666</v>
-      </c>
-      <c r="U36">
         <v>18938911111</v>
       </c>
-      <c r="X36" s="1">
+      <c r="U36" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="W36" s="2">
         <v>4.4512219881229e+17</v>
       </c>
+      <c r="X36" s="3" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" ht="13.5" spans="1:24">
       <c r="A37">
         <v>610089</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" t="s">
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>207</v>
+        <v>310</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42591.4468055556</v>
+      </c>
+      <c r="H37" t="s">
+        <v>311</v>
       </c>
       <c r="I37" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" t="s">
-        <v>209</v>
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37">
+        <v>91200109120010</v>
       </c>
       <c r="L37">
-        <v>91200109120010</v>
+        <v>140522006</v>
       </c>
       <c r="M37">
-        <v>140522006</v>
+        <v>1.4052703140527e+23</v>
       </c>
       <c r="N37">
-        <v>1.4052703140527e+23</v>
-      </c>
-      <c r="O37">
         <v>24.99</v>
       </c>
+      <c r="O37" t="s">
+        <v>314</v>
+      </c>
       <c r="P37" t="s">
-        <v>210</v>
-      </c>
-      <c r="R37" t="s">
-        <v>211</v>
+        <v>315</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>316</v>
+      </c>
+      <c r="R37">
+        <v>512900</v>
       </c>
       <c r="S37">
-        <v>512900</v>
+        <v>13354123241</v>
       </c>
       <c r="T37">
-        <v>13354123241</v>
-      </c>
-      <c r="U37">
         <v>18938911111</v>
       </c>
-      <c r="X37" s="1">
+      <c r="U37" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="W37" s="2">
         <v>4.4520219821116e+17</v>
       </c>
+      <c r="X37" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" ht="13.5" spans="1:24">
       <c r="A38">
         <v>610090</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>212</v>
+        <v>319</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1">
+        <v>42592.4468171296</v>
+      </c>
+      <c r="H38" t="s">
+        <v>320</v>
       </c>
       <c r="I38" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" t="s">
-        <v>209</v>
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38">
+        <v>9120011</v>
       </c>
       <c r="L38">
-        <v>9120011</v>
-      </c>
-      <c r="M38">
         <v>140522007</v>
       </c>
-      <c r="O38">
+      <c r="N38">
         <v>34.99</v>
       </c>
-      <c r="P38" t="s">
-        <v>214</v>
-      </c>
-      <c r="R38" t="s">
-        <v>215</v>
+      <c r="O38" t="s">
+        <v>322</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>324</v>
+      </c>
+      <c r="R38">
+        <v>512900</v>
       </c>
       <c r="S38">
-        <v>512900</v>
+        <v>13355666633</v>
       </c>
       <c r="T38">
-        <v>13355666633</v>
-      </c>
-      <c r="U38">
         <v>18938911111</v>
       </c>
-      <c r="X38" s="1">
+      <c r="U38" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="W38" s="2">
         <v>3.3072619650704e+17</v>
       </c>
+      <c r="X38" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" ht="13.5" spans="1:24">
       <c r="A39">
         <v>610091</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="C39" t="s">
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>216</v>
+        <v>327</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42593.4468287037</v>
+      </c>
+      <c r="H39" t="s">
+        <v>328</v>
       </c>
       <c r="I39" t="s">
-        <v>217</v>
+        <v>329</v>
+      </c>
+      <c r="K39">
+        <v>91200119120011</v>
       </c>
       <c r="L39">
-        <v>91200119120011</v>
+        <v>222222</v>
       </c>
       <c r="M39">
-        <v>222222</v>
+        <v>14052704</v>
       </c>
       <c r="N39">
-        <v>14052704</v>
-      </c>
-      <c r="O39">
         <v>34.99</v>
       </c>
-      <c r="P39" t="s">
-        <v>218</v>
+      <c r="O39" t="s">
+        <v>330</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q39">
+        <v>518020</v>
       </c>
       <c r="R39">
-        <v>518020</v>
+        <v>514000</v>
       </c>
       <c r="S39">
-        <v>514000</v>
+        <v>13355666633</v>
       </c>
       <c r="T39">
-        <v>13355666633</v>
-      </c>
-      <c r="U39">
         <v>18938911111</v>
       </c>
-      <c r="X39" s="1">
+      <c r="U39" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="W39" s="2">
         <v>4.45221198412012e+17</v>
       </c>
+      <c r="X39" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" ht="13.5" spans="1:24">
       <c r="A40">
         <v>610092</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="C40" t="s">
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s">
-        <v>219</v>
+        <v>334</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42594.4468402778</v>
+      </c>
+      <c r="H40" t="s">
+        <v>335</v>
       </c>
       <c r="I40" t="s">
-        <v>220</v>
-      </c>
-      <c r="K40" t="s">
-        <v>36</v>
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40">
+        <v>9120012</v>
       </c>
       <c r="L40">
-        <v>9120012</v>
+        <v>140522012</v>
       </c>
       <c r="M40">
-        <v>140522012</v>
+        <v>14052801</v>
       </c>
       <c r="N40">
-        <v>14052801</v>
-      </c>
-      <c r="O40">
         <v>24.99</v>
       </c>
-      <c r="P40" t="s">
-        <v>221</v>
-      </c>
-      <c r="R40" t="s">
-        <v>81</v>
+      <c r="O40" t="s">
+        <v>337</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>112</v>
+      </c>
+      <c r="R40">
+        <v>514200</v>
       </c>
       <c r="S40">
-        <v>514200</v>
+        <v>13400112125</v>
       </c>
       <c r="T40">
-        <v>13400112125</v>
-      </c>
-      <c r="U40">
         <v>18938911111</v>
       </c>
-      <c r="X40" s="1">
+      <c r="U40" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="W40" s="2">
         <v>4.45221198501122e+17</v>
       </c>
+      <c r="X40" s="3" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" ht="13.5" spans="1:24">
       <c r="A41">
         <v>610093</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="C41">
-        <v>52</v>
+      <c r="C41" t="s">
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>222</v>
+        <v>341</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>42595.4468518519</v>
+      </c>
+      <c r="H41" t="s">
+        <v>342</v>
       </c>
       <c r="I41" t="s">
-        <v>223</v>
-      </c>
-      <c r="K41" t="s">
-        <v>224</v>
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41">
+        <v>91200129120012</v>
       </c>
       <c r="L41">
-        <v>91200129120012</v>
+        <v>140522013</v>
       </c>
       <c r="M41">
-        <v>140522013</v>
+        <v>14052802</v>
       </c>
       <c r="N41">
-        <v>14052802</v>
-      </c>
-      <c r="O41">
         <v>34.99</v>
       </c>
-      <c r="P41" t="s">
-        <v>225</v>
-      </c>
-      <c r="R41" t="s">
-        <v>81</v>
+      <c r="O41" t="s">
+        <v>345</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>112</v>
+      </c>
+      <c r="R41">
+        <v>515200</v>
       </c>
       <c r="S41">
-        <v>515200</v>
+        <v>13400112125</v>
       </c>
       <c r="T41">
-        <v>13400112125</v>
-      </c>
-      <c r="U41">
         <v>18938911111</v>
       </c>
-      <c r="X41" s="1">
+      <c r="U41" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="W41" s="2">
         <v>4.45221198510211e+17</v>
       </c>
+      <c r="X41" s="3" t="s">
+        <v>348</v>
+      </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" ht="13.5" spans="1:24">
       <c r="A42">
         <v>610094</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="C42" t="s">
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>226</v>
+        <v>349</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>42596.4468634259</v>
+      </c>
+      <c r="H42" t="s">
+        <v>350</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
-      </c>
-      <c r="K42" t="s">
-        <v>36</v>
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42">
+        <v>888828</v>
       </c>
       <c r="L42">
-        <v>888828</v>
+        <v>5230001</v>
       </c>
       <c r="M42">
-        <v>5230001</v>
+        <v>14052803</v>
       </c>
       <c r="N42">
-        <v>14052803</v>
-      </c>
-      <c r="O42">
         <v>34.99</v>
       </c>
-      <c r="P42" t="s">
-        <v>228</v>
-      </c>
-      <c r="R42" t="s">
-        <v>229</v>
+      <c r="O42" t="s">
+        <v>352</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>354</v>
+      </c>
+      <c r="R42">
+        <v>515488</v>
       </c>
       <c r="S42">
-        <v>515488</v>
+        <v>13412452121</v>
       </c>
       <c r="T42">
-        <v>13412452121</v>
-      </c>
-      <c r="U42">
         <v>18938911111</v>
       </c>
-      <c r="X42" s="1">
+      <c r="U42" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="W42" s="2">
         <v>4.45221198512012e+17</v>
       </c>
+      <c r="X42" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" ht="13.5" spans="1:24">
       <c r="A43">
         <v>610095</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="C43" t="s">
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s">
-        <v>230</v>
+        <v>357</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1">
+        <v>42597.446875</v>
+      </c>
+      <c r="H43" t="s">
+        <v>358</v>
       </c>
       <c r="I43" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" t="s">
-        <v>146</v>
+        <v>359</v>
+      </c>
+      <c r="J43" t="s">
+        <v>203</v>
+      </c>
+      <c r="K43">
+        <v>91200429120042</v>
       </c>
       <c r="L43">
-        <v>91200429120042</v>
+        <v>1002003001</v>
       </c>
       <c r="M43">
-        <v>1002003001</v>
+        <v>1405280314052800</v>
       </c>
       <c r="N43">
-        <v>1405280314052800</v>
-      </c>
-      <c r="O43">
         <v>24.99</v>
       </c>
-      <c r="P43" t="s">
-        <v>232</v>
-      </c>
-      <c r="R43" t="s">
-        <v>233</v>
+      <c r="O43" t="s">
+        <v>360</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>362</v>
+      </c>
+      <c r="R43">
+        <v>515488</v>
       </c>
       <c r="S43">
-        <v>515488</v>
+        <v>13413432662</v>
       </c>
       <c r="T43">
-        <v>13413432662</v>
-      </c>
-      <c r="U43">
         <v>18938911112</v>
       </c>
-      <c r="X43" s="1">
+      <c r="U43" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="W43" s="2">
         <v>4.45221198512102e+17</v>
       </c>
+      <c r="X43" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" ht="13.5" spans="1:24">
       <c r="A44">
         <v>610096</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="C44" t="s">
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>234</v>
+        <v>365</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42598.4468865741</v>
+      </c>
+      <c r="H44" t="s">
+        <v>366</v>
       </c>
       <c r="I44" t="s">
-        <v>235</v>
-      </c>
-      <c r="K44" t="s">
-        <v>36</v>
+        <v>367</v>
+      </c>
+      <c r="J44" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44">
+        <v>888828</v>
       </c>
       <c r="L44">
-        <v>888828</v>
+        <v>22222001</v>
       </c>
       <c r="M44">
-        <v>22222001</v>
+        <v>14060401</v>
       </c>
       <c r="N44">
-        <v>14060401</v>
-      </c>
-      <c r="O44">
         <v>34.99</v>
       </c>
-      <c r="P44" t="s">
-        <v>236</v>
-      </c>
-      <c r="R44" t="s">
-        <v>237</v>
+      <c r="O44" t="s">
+        <v>368</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>370</v>
+      </c>
+      <c r="R44">
+        <v>515800</v>
       </c>
       <c r="S44">
-        <v>515800</v>
+        <v>13413432662</v>
       </c>
       <c r="T44">
-        <v>13413432662</v>
-      </c>
-      <c r="U44">
         <v>18938911113</v>
       </c>
-      <c r="X44" s="1">
+      <c r="U44" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="W44" s="2">
         <v>4.45221198610212e+17</v>
       </c>
+      <c r="X44" s="3" t="s">
+        <v>372</v>
+      </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" ht="13.5" spans="1:24">
       <c r="A45">
         <v>610097</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="C45" t="s">
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>238</v>
+        <v>373</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42599.4468981482</v>
+      </c>
+      <c r="H45" t="s">
+        <v>374</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
-      </c>
-      <c r="K45" t="s">
-        <v>146</v>
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45">
+        <v>888828</v>
       </c>
       <c r="L45">
-        <v>888828</v>
-      </c>
-      <c r="M45">
         <v>22222002</v>
       </c>
-      <c r="O45">
+      <c r="N45">
         <v>24.99</v>
       </c>
-      <c r="P45" t="s">
-        <v>240</v>
+      <c r="O45" t="s">
+        <v>376</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q45">
+        <v>112401</v>
       </c>
       <c r="R45">
-        <v>112401</v>
+        <v>516000</v>
       </c>
       <c r="S45">
-        <v>516000</v>
+        <v>13413432662</v>
       </c>
       <c r="T45">
-        <v>13413432662</v>
-      </c>
-      <c r="U45">
         <v>18938911114</v>
       </c>
-      <c r="X45" s="1">
+      <c r="U45" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="W45" s="2">
         <v>4.45221198610235e+17</v>
       </c>
+      <c r="X45" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" ht="13.5" spans="1:24">
       <c r="A46">
         <v>610098</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="C46">
-        <v>-1</v>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>241</v>
+        <v>380</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>42600.4469097222</v>
+      </c>
+      <c r="H46" t="s">
+        <v>381</v>
       </c>
       <c r="I46" t="s">
-        <v>242</v>
-      </c>
-      <c r="K46" t="s">
-        <v>75</v>
+        <v>382</v>
+      </c>
+      <c r="J46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46">
+        <v>888828</v>
       </c>
       <c r="L46">
-        <v>888828</v>
+        <v>22222003</v>
       </c>
       <c r="M46">
-        <v>22222003</v>
+        <v>4061604</v>
       </c>
       <c r="N46">
-        <v>4061604</v>
-      </c>
-      <c r="O46">
         <v>24.99</v>
       </c>
-      <c r="P46" t="s">
-        <v>243</v>
+      <c r="O46" t="s">
+        <v>383</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q46">
+        <v>112401</v>
       </c>
       <c r="R46">
-        <v>112401</v>
+        <v>516540</v>
       </c>
       <c r="S46">
-        <v>516540</v>
+        <v>13418940405</v>
       </c>
       <c r="T46">
-        <v>13418940405</v>
-      </c>
-      <c r="U46">
         <v>18938911114</v>
       </c>
-      <c r="X46" s="1">
+      <c r="U46" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="W46" s="2">
         <v>4.45221198610235e+17</v>
       </c>
+      <c r="X46" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" ht="13.5" spans="1:24">
       <c r="A47">
         <v>610099</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47">
         <v>46</v>
       </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>244</v>
+      <c r="F47" s="1">
+        <v>42601.4469212963</v>
+      </c>
+      <c r="H47" t="s">
+        <v>388</v>
       </c>
       <c r="I47" t="s">
-        <v>245</v>
-      </c>
-      <c r="K47" t="s">
-        <v>36</v>
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47">
+        <v>888828</v>
       </c>
       <c r="L47">
-        <v>888828</v>
-      </c>
-      <c r="M47">
         <v>22222004</v>
       </c>
-      <c r="O47">
+      <c r="N47">
         <v>24.99</v>
       </c>
-      <c r="P47" t="s">
-        <v>246</v>
-      </c>
-      <c r="R47" t="s">
-        <v>247</v>
+      <c r="O47" t="s">
+        <v>390</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>392</v>
+      </c>
+      <c r="R47">
+        <v>51800</v>
       </c>
       <c r="S47">
-        <v>51800</v>
+        <v>13422211111</v>
       </c>
       <c r="T47">
-        <v>13422211111</v>
-      </c>
-      <c r="U47">
         <v>18938911115</v>
       </c>
-      <c r="X47" s="1">
+      <c r="U47" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="W47" s="2">
         <v>4.45221198652121e+17</v>
       </c>
+      <c r="X47" s="3" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" ht="13.5" spans="1:24">
       <c r="A48">
         <v>610100</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="C48" t="s">
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" t="s">
-        <v>248</v>
+        <v>395</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1">
+        <v>42602.4469328704</v>
+      </c>
+      <c r="H48" t="s">
+        <v>396</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
-      </c>
-      <c r="K48" t="s">
-        <v>250</v>
+        <v>397</v>
+      </c>
+      <c r="J48" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48">
+        <v>9120000044</v>
       </c>
       <c r="L48">
-        <v>9120000044</v>
+        <v>5230002</v>
       </c>
       <c r="M48">
-        <v>5230002</v>
+        <v>14061701</v>
       </c>
       <c r="N48">
-        <v>14061701</v>
-      </c>
-      <c r="O48">
         <v>34.99</v>
       </c>
-      <c r="P48" t="s">
-        <v>251</v>
-      </c>
-      <c r="R48" t="s">
-        <v>252</v>
+      <c r="O48" t="s">
+        <v>399</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>401</v>
+      </c>
+      <c r="R48">
+        <v>51800</v>
       </c>
       <c r="S48">
-        <v>51800</v>
+        <v>13480971326</v>
       </c>
       <c r="T48">
-        <v>13480971326</v>
-      </c>
-      <c r="U48">
         <v>18938911119</v>
       </c>
-      <c r="X48" s="1">
+      <c r="U48" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="W48" s="2">
         <v>3.60425199212233e+17</v>
       </c>
+      <c r="X48" s="3" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" ht="13.5" spans="1:24">
       <c r="A49">
         <v>610101</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C49">
-        <v>59</v>
+      <c r="C49" t="s">
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s">
-        <v>253</v>
+        <v>404</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1">
+        <v>42603.4469444444</v>
+      </c>
+      <c r="H49" t="s">
+        <v>405</v>
       </c>
       <c r="I49" t="s">
-        <v>254</v>
-      </c>
-      <c r="K49" t="s">
-        <v>250</v>
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49">
+        <v>9.120000044912e+19</v>
       </c>
       <c r="L49">
-        <v>9.120000044912e+19</v>
+        <v>14052701</v>
       </c>
       <c r="M49">
-        <v>14052701</v>
+        <v>14061718</v>
       </c>
       <c r="N49">
-        <v>14061718</v>
-      </c>
-      <c r="O49">
         <v>24.99</v>
       </c>
-      <c r="P49" t="s">
-        <v>255</v>
-      </c>
-      <c r="R49" t="s">
-        <v>252</v>
+      <c r="O49" t="s">
+        <v>407</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>401</v>
+      </c>
+      <c r="R49">
+        <v>518000</v>
       </c>
       <c r="S49">
-        <v>518000</v>
+        <v>13480971326</v>
       </c>
       <c r="T49">
-        <v>13480971326</v>
-      </c>
-      <c r="U49">
         <v>18938919682</v>
       </c>
-      <c r="X49" s="1">
+      <c r="U49" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="W49" s="2">
         <v>4.452211990101e+17</v>
       </c>
+      <c r="X49" s="3" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" ht="13.5" spans="1:24">
       <c r="A50">
         <v>610102</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
       </c>
-      <c r="C50">
-        <v>59</v>
+      <c r="C50" t="s">
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>256</v>
+        <v>411</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1">
+        <v>42604.4469560185</v>
+      </c>
+      <c r="H50" t="s">
+        <v>412</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
-      </c>
-      <c r="K50" t="s">
-        <v>250</v>
-      </c>
-      <c r="M50">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50">
         <v>1405270114052700</v>
       </c>
-      <c r="O50">
+      <c r="N50">
         <v>34.99</v>
       </c>
-      <c r="P50" t="s">
-        <v>258</v>
-      </c>
-      <c r="R50" t="s">
-        <v>259</v>
+      <c r="O50" t="s">
+        <v>414</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>416</v>
+      </c>
+      <c r="R50">
+        <v>518000</v>
       </c>
       <c r="S50">
-        <v>518000</v>
+        <v>13480971327</v>
       </c>
       <c r="T50">
-        <v>13480971327</v>
-      </c>
-      <c r="U50">
         <v>18938919682</v>
       </c>
-      <c r="X50" s="1">
+      <c r="U50" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="W50" s="2">
         <v>4.20111198207014e+17</v>
       </c>
+      <c r="X50" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" ht="13.5" spans="1:24">
       <c r="A51">
         <v>610103</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="C51">
-        <v>59</v>
+      <c r="C51" t="s">
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s">
-        <v>260</v>
+        <v>419</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51" s="1">
+        <v>42605.4469675926</v>
+      </c>
+      <c r="H51" t="s">
+        <v>420</v>
       </c>
       <c r="I51" t="s">
-        <v>261</v>
-      </c>
-      <c r="K51" t="s">
-        <v>250</v>
-      </c>
-      <c r="M51">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>398</v>
+      </c>
+      <c r="L51">
         <v>14052702</v>
       </c>
-      <c r="O51">
+      <c r="N51">
         <v>24.99</v>
       </c>
-      <c r="P51" t="s">
-        <v>262</v>
-      </c>
-      <c r="R51" t="s">
-        <v>263</v>
+      <c r="O51" t="s">
+        <v>422</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>424</v>
+      </c>
+      <c r="R51">
+        <v>518000</v>
       </c>
       <c r="S51">
-        <v>518000</v>
+        <v>13480971327</v>
       </c>
       <c r="T51">
-        <v>13480971327</v>
-      </c>
-      <c r="U51">
         <v>18938919682</v>
       </c>
-      <c r="X51" s="1">
+      <c r="U51" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="W51" s="2">
         <v>5.30121198502181e+17</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1" display="xie_shitong@163.com"/>
+    <hyperlink ref="U3" r:id="rId1" display="xie_shitong@164.com"/>
+    <hyperlink ref="U4" r:id="rId1" display="xie_shitong@165.com"/>
+    <hyperlink ref="U5" r:id="rId1" display="xie_shitong@166.com"/>
+    <hyperlink ref="U6" r:id="rId1" display="xie_shitong@167.com"/>
+    <hyperlink ref="U7" r:id="rId1" display="xie_shitong@168.com"/>
+    <hyperlink ref="U8" r:id="rId1" display="xie_shitong@169.com"/>
+    <hyperlink ref="U9" r:id="rId1" display="xie_shitong@170.com"/>
+    <hyperlink ref="U10" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U11" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U12" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U22" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U13" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U23" r:id="rId1" display="xie_shitong@184.com"/>
+    <hyperlink ref="U14" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U24" r:id="rId1" display="xie_shitong@185.com"/>
+    <hyperlink ref="U15" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U25" r:id="rId1" display="xie_shitong@186.com"/>
+    <hyperlink ref="U16" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U17" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U18" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U19" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U20" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U21" r:id="rId2" display="xieshitong@birdex.cn" tooltip="mailto:xieshitong@birdex.cn"/>
+    <hyperlink ref="U26" r:id="rId1" display="xie_shitong@187.com"/>
+    <hyperlink ref="U27" r:id="rId1" display="xie_shitong@188.com"/>
+    <hyperlink ref="U28" r:id="rId1" display="xie_shitong@189.com"/>
+    <hyperlink ref="U29" r:id="rId1" display="xie_shitong@190.com"/>
+    <hyperlink ref="U30" r:id="rId1" display="xie_shitong@191.com"/>
+    <hyperlink ref="U31" r:id="rId1" display="xie_shitong@192.com"/>
+    <hyperlink ref="U32" r:id="rId1" display="xie_shitong@193.com"/>
+    <hyperlink ref="U33" r:id="rId1" display="xie_shitong@194.com"/>
+    <hyperlink ref="U34" r:id="rId1" display="xie_shitong@195.com"/>
+    <hyperlink ref="U35" r:id="rId1" display="xie_shitong@196.com"/>
+    <hyperlink ref="U36" r:id="rId3" display="276503124@qq.com"/>
+    <hyperlink ref="U37" r:id="rId3" display="276503125@qq.com"/>
+    <hyperlink ref="U38" r:id="rId3" display="276503126@qq.com"/>
+    <hyperlink ref="U39" r:id="rId3" display="276503127@qq.com"/>
+    <hyperlink ref="U40" r:id="rId3" display="276503128@qq.com"/>
+    <hyperlink ref="U41" r:id="rId3" display="276503129@qq.com"/>
+    <hyperlink ref="U42" r:id="rId3" display="276503130@qq.com"/>
+    <hyperlink ref="U43" r:id="rId3" display="276503131@qq.com"/>
+    <hyperlink ref="U44" r:id="rId3" display="276503132@qq.com"/>
+    <hyperlink ref="U45" r:id="rId3" display="276503133@qq.com"/>
+    <hyperlink ref="U46" r:id="rId3" display="276503134@qq.com"/>
+    <hyperlink ref="U47" r:id="rId3" display="276503135@qq.com"/>
+    <hyperlink ref="U48" r:id="rId3" display="276503136@qq.com"/>
+    <hyperlink ref="U49" r:id="rId3" display="276503137@qq.com"/>
+    <hyperlink ref="U50" r:id="rId3" display="276503138@qq.com"/>
+    <hyperlink ref="U51" r:id="rId3" display="276503139@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
